--- a/WAGES PACKAGE.xlsx
+++ b/WAGES PACKAGE.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deban\source\repos\PayRoll\PayRoll\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF0A5B0-BD2C-42BB-97FA-76AE011EEA52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="19095" windowHeight="9720"/>
+    <workbookView xWindow="1335" yWindow="1755" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -346,8 +352,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,6 +436,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -476,7 +490,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -508,9 +522,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -542,6 +574,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -717,1218 +767,1218 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A423"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="B220" sqref="B220"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="90.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="23.25">
+    <row r="1" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="18.75">
+    <row r="2" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="18.75">
+    <row r="3" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="18.75">
+    <row r="4" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="18.75">
+    <row r="5" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="18.75">
+    <row r="6" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="18.75">
+    <row r="7" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="18.75">
+    <row r="8" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="18.75">
+    <row r="9" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="18.75">
+    <row r="10" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="18.75">
+    <row r="11" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="18.75">
+    <row r="12" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="18.75">
+    <row r="13" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="18.75">
+    <row r="14" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="18.75">
+    <row r="15" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="18.75">
+    <row r="16" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="18.75">
+    <row r="17" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="18.75">
+    <row r="18" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="18.75">
+    <row r="19" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="18.75">
+    <row r="20" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="18.75">
+    <row r="21" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="18.75">
+    <row r="22" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="18.75">
+    <row r="23" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="18.75">
+    <row r="24" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
     </row>
-    <row r="26" spans="1:1" ht="23.25">
+    <row r="26" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="18.75">
+    <row r="27" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="18.75">
+    <row r="28" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="18.75">
+    <row r="29" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="18.75">
+    <row r="30" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="18.75">
+    <row r="33" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="18.75">
+    <row r="34" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="18.75">
+    <row r="35" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="18.75">
+    <row r="36" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="18.75">
+    <row r="37" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="18.75">
+    <row r="38" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="18.75">
+    <row r="39" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="18.75">
+    <row r="40" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="18.75">
+    <row r="41" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="18.75">
+    <row r="42" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="18.75">
+    <row r="43" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="18.75">
+    <row r="44" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="18.75">
+    <row r="45" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
     </row>
-    <row r="47" spans="1:1" ht="23.25">
+    <row r="47" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="18.75">
+    <row r="48" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="18.75">
+    <row r="49" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="18.75">
+    <row r="50" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="18.75">
+    <row r="51" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="18.75">
+    <row r="52" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="18.75">
+    <row r="53" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="18.75">
+    <row r="54" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="18.75">
+    <row r="55" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="18.75">
+    <row r="58" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="18.75">
+    <row r="59" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="18.75">
+    <row r="60" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="18.75">
+    <row r="61" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:1" ht="18.75">
+    <row r="62" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:1" ht="18.75">
+    <row r="63" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="18.75">
+    <row r="64" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="18.75">
+    <row r="65" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="22.5" customHeight="1">
+    <row r="66" spans="1:1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="18.75">
+    <row r="67" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="18.75">
+    <row r="68" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="18.75">
+    <row r="69" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="18.75">
+    <row r="70" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="18.75">
+    <row r="71" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="18.75">
+    <row r="72" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="18.75">
+    <row r="73" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="18.75">
+    <row r="74" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="18.75">
+    <row r="75" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="18.75">
+    <row r="76" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="18.75">
+    <row r="77" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="18.75">
+    <row r="78" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="18.75">
+    <row r="79" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="18.75">
+    <row r="80" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="18.75">
+    <row r="81" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="18.75">
+    <row r="82" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="18.75">
+    <row r="83" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="18.75">
+    <row r="84" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="18.75">
+    <row r="85" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="18.75">
+    <row r="86" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="18.75">
+    <row r="87" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="18.75">
+    <row r="88" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="18.75">
+    <row r="89" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="18.75">
+    <row r="90" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="18.75">
+    <row r="91" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="18.75">
+    <row r="92" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="18.75">
+    <row r="93" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="18.75">
+    <row r="94" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="18.75">
+    <row r="95" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="18.75">
+    <row r="96" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="18.75">
+    <row r="97" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="18.75">
+    <row r="98" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
     </row>
-    <row r="99" spans="1:1" ht="18.75">
+    <row r="99" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="18.75">
+    <row r="100" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
     </row>
-    <row r="101" spans="1:1" ht="18.75">
+    <row r="101" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="18.75">
+    <row r="102" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="18.75">
+    <row r="103" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="18.75">
+    <row r="104" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="18.75">
+    <row r="105" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
     </row>
-    <row r="106" spans="1:1" ht="18.75">
+    <row r="106" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="18.75">
+    <row r="107" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="18.75">
+    <row r="108" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="18.75">
+    <row r="109" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
     </row>
-    <row r="110" spans="1:1" ht="18.75">
+    <row r="110" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="18.75">
+    <row r="111" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="18.75">
+    <row r="112" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
     </row>
-    <row r="113" spans="1:1" ht="18.75">
+    <row r="113" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="18.75">
+    <row r="114" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="18.75">
+    <row r="116" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="18.75">
+    <row r="118" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="18.75">
+    <row r="120" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="18.75">
+    <row r="124" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="18.75">
+    <row r="125" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="18.75">
+    <row r="126" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="18.75">
+    <row r="127" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="18.75">
+    <row r="128" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="18.75">
+    <row r="129" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="18.75">
+    <row r="130" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="18.75">
+    <row r="131" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="18.75">
+    <row r="132" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="18.75">
+    <row r="133" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="18.75">
+    <row r="134" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="18.75">
+    <row r="135" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="18.75">
+    <row r="136" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="18.75">
+    <row r="137" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="18.75">
+    <row r="138" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="18.75">
+    <row r="139" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="18.75">
+    <row r="140" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="18.75">
+    <row r="141" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="18.75">
+    <row r="142" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="18.75">
+    <row r="143" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="18.75">
+    <row r="144" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="18.75">
+    <row r="145" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="18.75">
+    <row r="146" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="18.75">
+    <row r="147" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="18.75">
+    <row r="148" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="18.75">
+    <row r="149" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="18.75">
+    <row r="150" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="18.75">
+    <row r="151" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="18.75">
+    <row r="152" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="18.75">
+    <row r="153" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="18.75">
+    <row r="154" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="18.75">
+    <row r="155" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="18.75">
+    <row r="156" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="18.75">
+    <row r="157" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="18.75">
+    <row r="158" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="18.75">
+    <row r="159" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
     </row>
-    <row r="160" spans="1:1" ht="18.75">
+    <row r="160" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="18.75">
+    <row r="161" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
     </row>
-    <row r="162" spans="1:1" ht="18.75">
+    <row r="162" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="18.75">
+    <row r="163" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="18.75">
+    <row r="164" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="18.75">
+    <row r="165" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="18.75">
+    <row r="166" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
     </row>
-    <row r="167" spans="1:1" ht="18.75">
+    <row r="167" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="18.75">
+    <row r="168" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="18.75">
+    <row r="169" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="18.75">
+    <row r="170" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
     </row>
-    <row r="171" spans="1:1" ht="18.75">
+    <row r="171" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="18.75">
+    <row r="172" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="18.75">
+    <row r="173" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
     </row>
-    <row r="174" spans="1:1" ht="18.75">
+    <row r="174" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="18.75">
+    <row r="175" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="18.75">
+    <row r="177" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="18.75">
+    <row r="179" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="181" spans="1:1" ht="18.75">
+    <row r="181" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="18.75">
+    <row r="183" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="18.75">
+    <row r="184" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="185" spans="1:1" ht="18.75">
+    <row r="185" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="186" spans="1:1" ht="18.75">
+    <row r="186" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="18.75">
+    <row r="187" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="18.75">
+    <row r="188" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="189" spans="1:1" ht="18.75">
+    <row r="189" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="190" spans="1:1" ht="18.75">
+    <row r="190" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="191" spans="1:1" ht="18.75">
+    <row r="191" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="192" spans="1:1" ht="18.75">
+    <row r="192" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:1" ht="18.75">
+    <row r="193" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="194" spans="1:1" ht="18.75">
+    <row r="194" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="18.75">
+    <row r="195" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="196" spans="1:1" ht="18.75">
+    <row r="196" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="197" spans="1:1" ht="18.75">
+    <row r="197" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="198" spans="1:1" ht="18.75">
+    <row r="198" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="199" spans="1:1" ht="18.75">
+    <row r="199" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="200" spans="1:1" ht="18.75">
+    <row r="200" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="201" spans="1:1" ht="18.75">
+    <row r="201" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="202" spans="1:1" ht="18.75">
+    <row r="202" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="203" spans="1:1" ht="18.75">
+    <row r="203" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="204" spans="1:1" ht="18.75">
+    <row r="204" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="205" spans="1:1" ht="18.75">
+    <row r="205" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="206" spans="1:1" ht="18.75">
+    <row r="206" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="207" spans="1:1" ht="18.75">
+    <row r="207" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="208" spans="1:1" ht="18.75">
+    <row r="208" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="209" spans="1:1" ht="18.75">
+    <row r="209" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="210" spans="1:1" ht="18.75">
+    <row r="210" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="211" spans="1:1" ht="18.75">
+    <row r="211" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="212" spans="1:1" ht="18.75">
+    <row r="212" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="213" spans="1:1" ht="18.75">
+    <row r="213" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
     </row>
-    <row r="214" spans="1:1" ht="18.75">
+    <row r="214" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="215" spans="1:1" ht="18.75">
+    <row r="215" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
     </row>
-    <row r="216" spans="1:1" ht="18.75">
+    <row r="216" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="217" spans="1:1" ht="18.75">
+    <row r="217" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="218" spans="1:1" ht="18.75">
+    <row r="218" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="219" spans="1:1" ht="18.75">
+    <row r="219" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="220" spans="1:1" ht="18.75">
+    <row r="220" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
     </row>
-    <row r="221" spans="1:1" ht="18.75">
+    <row r="221" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="222" spans="1:1" ht="18.75">
+    <row r="222" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="223" spans="1:1" ht="18.75">
+    <row r="223" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="224" spans="1:1" ht="18.75">
+    <row r="224" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A224" s="1"/>
     </row>
-    <row r="225" spans="1:1" ht="18.75">
+    <row r="225" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="226" spans="1:1" ht="18.75">
+    <row r="226" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="227" spans="1:1" ht="18.75">
+    <row r="227" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
     </row>
-    <row r="228" spans="1:1" ht="18.75">
+    <row r="228" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="229" spans="1:1" ht="18.75">
+    <row r="229" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="231" spans="1:1" ht="18.75">
+    <row r="231" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="233" spans="1:1" ht="18.75">
+    <row r="233" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="235" spans="1:1" ht="18.75">
+    <row r="235" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="238" spans="1:1" ht="18.75">
+    <row r="238" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="239" spans="1:1" ht="18.75">
+    <row r="239" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="240" spans="1:1" ht="18.75">
+    <row r="240" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="241" spans="1:1" ht="18.75">
+    <row r="241" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="18.75">
+    <row r="242" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="18.75">
+    <row r="243" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="244" spans="1:1" ht="18.75">
+    <row r="244" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="245" spans="1:1" ht="18.75">
+    <row r="245" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="246" spans="1:1" ht="18.75">
+    <row r="246" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="247" spans="1:1" ht="18.75">
+    <row r="247" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="248" spans="1:1" ht="18.75">
+    <row r="248" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="249" spans="1:1" ht="18.75">
+    <row r="249" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="250" spans="1:1" ht="18.75">
+    <row r="250" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="251" spans="1:1" ht="18.75">
+    <row r="251" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="252" spans="1:1" ht="18.75">
+    <row r="252" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A252" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="253" spans="1:1" ht="18.75">
+    <row r="253" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="254" spans="1:1" ht="18.75">
+    <row r="254" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="255" spans="1:1" ht="18.75">
+    <row r="255" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="256" spans="1:1" ht="18.75">
+    <row r="256" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="257" spans="1:1" ht="18.75">
+    <row r="257" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="258" spans="1:1" ht="18.75">
+    <row r="258" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="259" spans="1:1" ht="18.75">
+    <row r="259" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="260" spans="1:1" ht="18.75">
+    <row r="260" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="261" spans="1:1" ht="18.75">
+    <row r="261" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="262" spans="1:1" ht="18.75">
+    <row r="262" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A262" s="1"/>
     </row>
-    <row r="263" spans="1:1" ht="18.75">
+    <row r="263" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="264" spans="1:1" ht="18.75">
+    <row r="264" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A264" s="1"/>
     </row>
-    <row r="266" spans="1:1" ht="18.75">
+    <row r="266" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="409" spans="1:1" ht="18.75">
+    <row r="409" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A409" s="2"/>
     </row>
-    <row r="410" spans="1:1" ht="18.75">
+    <row r="410" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A410" s="1"/>
     </row>
-    <row r="411" spans="1:1" ht="18.75">
+    <row r="411" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A411" s="1"/>
     </row>
-    <row r="412" spans="1:1" ht="18.75">
+    <row r="412" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A412" s="1"/>
     </row>
-    <row r="413" spans="1:1" ht="18.75">
+    <row r="413" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A413" s="1"/>
     </row>
-    <row r="415" spans="1:1" ht="18.75">
+    <row r="415" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A415" s="1"/>
     </row>
-    <row r="416" spans="1:1" ht="18.75">
+    <row r="416" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A416" s="1"/>
     </row>
-    <row r="417" spans="1:1" ht="18.75">
+    <row r="417" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A417" s="1"/>
     </row>
-    <row r="420" spans="1:1" ht="18.75">
+    <row r="420" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A420" s="1"/>
     </row>
-    <row r="421" spans="1:1" ht="18.75">
+    <row r="421" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A421" s="1"/>
     </row>
-    <row r="422" spans="1:1" ht="18.75">
+    <row r="422" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A422" s="1"/>
     </row>
-    <row r="423" spans="1:1" ht="18.75">
+    <row r="423" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A423" s="1"/>
     </row>
   </sheetData>
